--- a/runs/run484/NotionalETEOutput484.xlsx
+++ b/runs/run484/NotionalETEOutput484.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_SOMERSAULT2_State_Update</t>
+    <t>Missile_HIGHWIND1_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT2_100.MISSILE_SOMERSAULT2_100</t>
+    <t>MISSILE_HIGHWIND1_86.MISSILE_HIGHWIND1_86</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT2</t>
+    <t>MISSILE_HIGHWIND1</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1563.9322629346</v>
+        <v>-1446.11671822343</v>
       </c>
       <c r="J2">
-        <v>2074.612165416946</v>
+        <v>1995.433043096202</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1404.223342149174</v>
+        <v>-1475.876785612182</v>
       </c>
       <c r="J3">
-        <v>1961.131232185026</v>
+        <v>2046.006845723525</v>
       </c>
       <c r="K3">
-        <v>310.5911743300088</v>
+        <v>311.1080786493634</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1450.322515067021</v>
+        <v>-1416.278376511067</v>
       </c>
       <c r="J4">
-        <v>1828.815855280432</v>
+        <v>1934.149604147348</v>
       </c>
       <c r="K4">
-        <v>570.6330308354494</v>
+        <v>614.763554813364</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1442.359613951572</v>
+        <v>-1357.427008071702</v>
       </c>
       <c r="J5">
-        <v>1822.109426533773</v>
+        <v>1787.248730959032</v>
       </c>
       <c r="K5">
-        <v>897.9743207349804</v>
+        <v>827.3599439564802</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1327.577802396807</v>
+        <v>-1316.127710009064</v>
       </c>
       <c r="J6">
-        <v>1762.774648753323</v>
+        <v>1868.502470724494</v>
       </c>
       <c r="K6">
-        <v>1111.707595813945</v>
+        <v>1126.195546732564</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1410.135942751815</v>
+        <v>-1398.21055798685</v>
       </c>
       <c r="J7">
-        <v>1753.490277501173</v>
+        <v>1721.519902667572</v>
       </c>
       <c r="K7">
-        <v>1411.595185051823</v>
+        <v>1375.450069990488</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1277.974774747072</v>
+        <v>-1312.191603878005</v>
       </c>
       <c r="J8">
-        <v>1725.07195675565</v>
+        <v>1746.367469755173</v>
       </c>
       <c r="K8">
-        <v>1615.094441757132</v>
+        <v>1516.279673091423</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-96.62935038963691</v>
+        <v>-98.79930304966481</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1248.599117573762</v>
+        <v>-1283.495381228449</v>
       </c>
       <c r="J9">
-        <v>1581.097117421272</v>
+        <v>1606.696155564113</v>
       </c>
       <c r="K9">
-        <v>1723.756022207466</v>
+        <v>1776.613897474839</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>208.6180983541944</v>
+        <v>211.0539049615293</v>
       </c>
       <c r="G10">
-        <v>-81.43390724873764</v>
+        <v>-84.71231275501597</v>
       </c>
       <c r="H10">
-        <v>831.9168250025664</v>
+        <v>874.3033113735976</v>
       </c>
       <c r="I10">
-        <v>-1229.381889073337</v>
+        <v>-1260.606791480563</v>
       </c>
       <c r="J10">
-        <v>1661.336246736008</v>
+        <v>1678.95433762061</v>
       </c>
       <c r="K10">
-        <v>1912.128932296295</v>
+        <v>2006.143134307732</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>176.747274861224</v>
+        <v>171.1771315297967</v>
       </c>
       <c r="G11">
-        <v>-66.40502015066367</v>
+        <v>-69.22649820191477</v>
       </c>
       <c r="H11">
-        <v>1106.416643709075</v>
+        <v>1058.575496805681</v>
       </c>
       <c r="I11">
-        <v>-1170.731783659885</v>
+        <v>-1234.925178877077</v>
       </c>
       <c r="J11">
-        <v>1535.276062645069</v>
+        <v>1520.313067105363</v>
       </c>
       <c r="K11">
-        <v>2188.220482827583</v>
+        <v>2231.290501509712</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>141.4636437642767</v>
+        <v>134.588517134495</v>
       </c>
       <c r="G12">
-        <v>-49.27549100768046</v>
+        <v>-48.89691354772835</v>
       </c>
       <c r="H12">
-        <v>1147.511202957347</v>
+        <v>1212.089247886178</v>
       </c>
       <c r="I12">
-        <v>-1203.323497141142</v>
+        <v>-1181.840510170128</v>
       </c>
       <c r="J12">
-        <v>1529.014782941041</v>
+        <v>1442.435014311483</v>
       </c>
       <c r="K12">
-        <v>2303.066047269518</v>
+        <v>2291.980149822791</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>124.9599054935734</v>
+        <v>123.8245136064316</v>
       </c>
       <c r="G13">
-        <v>-32.84595255449408</v>
+        <v>-32.91820462591102</v>
       </c>
       <c r="H13">
-        <v>1241.42634874413</v>
+        <v>1232.706114734417</v>
       </c>
       <c r="I13">
-        <v>-1090.511081419153</v>
+        <v>-1115.278064229802</v>
       </c>
       <c r="J13">
-        <v>1518.723976870644</v>
+        <v>1437.785178105917</v>
       </c>
       <c r="K13">
-        <v>2459.478159492613</v>
+        <v>2476.827784299395</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>105.3908461122381</v>
+        <v>110.704722528275</v>
       </c>
       <c r="G14">
-        <v>-16.98516938772647</v>
+        <v>-17.8628482434975</v>
       </c>
       <c r="H14">
-        <v>1357.204053505288</v>
+        <v>1314.104043038156</v>
       </c>
       <c r="I14">
-        <v>-1044.481203731271</v>
+        <v>-1047.140360910524</v>
       </c>
       <c r="J14">
-        <v>1442.407420899226</v>
+        <v>1462.543292152158</v>
       </c>
       <c r="K14">
-        <v>2625.788157276315</v>
+        <v>2611.745961256085</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>102.9021986048922</v>
+        <v>103.6297169274199</v>
       </c>
       <c r="G15">
-        <v>-0.9336832797430783</v>
+        <v>-0.9403876391374918</v>
       </c>
       <c r="H15">
-        <v>1315.341937853852</v>
+        <v>1331.161238779632</v>
       </c>
       <c r="I15">
-        <v>-1104.473228868607</v>
+        <v>-1051.772968929701</v>
       </c>
       <c r="J15">
-        <v>1340.329742801324</v>
+        <v>1381.948968655229</v>
       </c>
       <c r="K15">
-        <v>2797.822555809129</v>
+        <v>2792.375123576638</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>89.0998219427327</v>
+        <v>90.82776850830396</v>
       </c>
       <c r="G16">
-        <v>15.79428917399419</v>
+        <v>16.10590249022219</v>
       </c>
       <c r="H16">
-        <v>1361.673490418664</v>
+        <v>1416.70642098445</v>
       </c>
       <c r="I16">
-        <v>-1005.320343875694</v>
+        <v>-988.5090631868877</v>
       </c>
       <c r="J16">
-        <v>1292.319258315976</v>
+        <v>1289.497067923225</v>
       </c>
       <c r="K16">
-        <v>3010.263926045181</v>
+        <v>2756.293564143355</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>89.89393716209207</v>
+        <v>90.84211817596282</v>
       </c>
       <c r="G17">
-        <v>32.1732322467609</v>
+        <v>33.26303814621389</v>
       </c>
       <c r="H17">
-        <v>1502.467372187821</v>
+        <v>1475.96807459674</v>
       </c>
       <c r="I17">
-        <v>-995.4166247587866</v>
+        <v>-983.9608337959104</v>
       </c>
       <c r="J17">
-        <v>1261.461495061521</v>
+        <v>1297.945281087486</v>
       </c>
       <c r="K17">
-        <v>3008.838190957121</v>
+        <v>2939.910834003504</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>84.0804495347855</v>
+        <v>84.47778534229768</v>
       </c>
       <c r="G18">
-        <v>48.64019620464548</v>
+        <v>46.23088864468465</v>
       </c>
       <c r="H18">
-        <v>1509.935315467873</v>
+        <v>1529.193334597129</v>
       </c>
       <c r="I18">
-        <v>-889.4078368088805</v>
+        <v>-890.5866346585237</v>
       </c>
       <c r="J18">
-        <v>1182.706452237464</v>
+        <v>1226.481497327094</v>
       </c>
       <c r="K18">
-        <v>3131.097637861347</v>
+        <v>3094.7145323962</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>79.95088857913176</v>
+        <v>81.47010076991009</v>
       </c>
       <c r="G19">
-        <v>64.21784082410169</v>
+        <v>67.08244682195438</v>
       </c>
       <c r="H19">
-        <v>1553.890920329704</v>
+        <v>1564.340386499633</v>
       </c>
       <c r="I19">
-        <v>-916.1821298638412</v>
+        <v>-851.9641442028452</v>
       </c>
       <c r="J19">
-        <v>1182.464403831445</v>
+        <v>1208.900265504176</v>
       </c>
       <c r="K19">
-        <v>3023.325051783706</v>
+        <v>3089.904962674295</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>75.68694837453275</v>
+        <v>70.67125098852587</v>
       </c>
       <c r="G20">
-        <v>79.51503481832641</v>
+        <v>84.59841451272746</v>
       </c>
       <c r="H20">
-        <v>1580.078626124554</v>
+        <v>1623.346836493096</v>
       </c>
       <c r="I20">
-        <v>-802.3395450137375</v>
+        <v>-800.2310658890509</v>
       </c>
       <c r="J20">
-        <v>1073.00140056317</v>
+        <v>1095.135935154781</v>
       </c>
       <c r="K20">
-        <v>3283.250431056616</v>
+        <v>3193.599653512939</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>69.31222328333199</v>
+        <v>72.82864836952255</v>
       </c>
       <c r="G21">
-        <v>101.3308736308435</v>
+        <v>98.71112936136413</v>
       </c>
       <c r="H21">
-        <v>1635.316304848251</v>
+        <v>1515.790519772377</v>
       </c>
       <c r="I21">
-        <v>-830.0207929443507</v>
+        <v>-818.0465400585059</v>
       </c>
       <c r="J21">
-        <v>1081.750139193945</v>
+        <v>1068.043216291827</v>
       </c>
       <c r="K21">
-        <v>3135.683520067261</v>
+        <v>3234.393976682562</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>68.67708412705413</v>
+        <v>65.09194010131721</v>
       </c>
       <c r="G22">
-        <v>111.0622928883969</v>
+        <v>111.8979426496871</v>
       </c>
       <c r="H22">
-        <v>1673.48607671285</v>
+        <v>1601.248783374441</v>
       </c>
       <c r="I22">
-        <v>-754.1400923887963</v>
+        <v>-728.7169712374837</v>
       </c>
       <c r="J22">
-        <v>1024.683332556064</v>
+        <v>999.5438299183854</v>
       </c>
       <c r="K22">
-        <v>3250.244112330794</v>
+        <v>3349.673626258563</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>66.43163588752402</v>
+        <v>67.37195927247322</v>
       </c>
       <c r="G23">
-        <v>137.5491071298</v>
+        <v>127.1879514757696</v>
       </c>
       <c r="H23">
-        <v>1654.266949420085</v>
+        <v>1673.512449511349</v>
       </c>
       <c r="I23">
-        <v>-710.7701396398679</v>
+        <v>-688.0756706529803</v>
       </c>
       <c r="J23">
-        <v>975.6221333379494</v>
+        <v>946.795667805067</v>
       </c>
       <c r="K23">
-        <v>3072.669591058063</v>
+        <v>3312.606761858024</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>64.81255710429637</v>
+        <v>60.60400763233567</v>
       </c>
       <c r="G24">
-        <v>142.7279468246464</v>
+        <v>145.2634603741695</v>
       </c>
       <c r="H24">
-        <v>1605.306359454297</v>
+        <v>1634.576657146114</v>
       </c>
       <c r="I24">
-        <v>-661.2915568927014</v>
+        <v>-618.3177702282682</v>
       </c>
       <c r="J24">
-        <v>934.0443900894302</v>
+        <v>973.5872362473849</v>
       </c>
       <c r="K24">
-        <v>3064.980073194376</v>
+        <v>3166.184345002436</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>59.88546344830995</v>
+        <v>60.99506556473303</v>
       </c>
       <c r="G25">
-        <v>166.4613917200872</v>
+        <v>159.8724862987925</v>
       </c>
       <c r="H25">
-        <v>1751.503596215076</v>
+        <v>1734.907488262316</v>
       </c>
       <c r="I25">
-        <v>-580.5515934072364</v>
+        <v>-588.0330058209936</v>
       </c>
       <c r="J25">
-        <v>912.1066747985539</v>
+        <v>852.1409904544832</v>
       </c>
       <c r="K25">
-        <v>3312.055908761431</v>
+        <v>3227.146238266925</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>61.5584363986276</v>
+        <v>57.76727111872869</v>
       </c>
       <c r="G26">
-        <v>181.0861388426924</v>
+        <v>172.2618924921942</v>
       </c>
       <c r="H26">
-        <v>1770.317239743996</v>
+        <v>1767.370702322327</v>
       </c>
       <c r="I26">
-        <v>-565.0757250210924</v>
+        <v>-525.3634053450285</v>
       </c>
       <c r="J26">
-        <v>852.1435980214126</v>
+        <v>848.9289862890774</v>
       </c>
       <c r="K26">
-        <v>2968.018858334751</v>
+        <v>3233.513779462397</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>60.33357971825309</v>
+        <v>59.83261132107998</v>
       </c>
       <c r="G27">
-        <v>188.1487449951963</v>
+        <v>204.3726606094116</v>
       </c>
       <c r="H27">
-        <v>1721.594574956519</v>
+        <v>1776.907405348829</v>
       </c>
       <c r="I27">
-        <v>-500.5854505261037</v>
+        <v>-495.8789797955001</v>
       </c>
       <c r="J27">
-        <v>775.7748810325986</v>
+        <v>795.2060678967289</v>
       </c>
       <c r="K27">
-        <v>2983.374128110097</v>
+        <v>3201.283416558834</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>54.89166502456617</v>
+        <v>55.79966130278859</v>
       </c>
       <c r="G28">
-        <v>208.9278214804939</v>
+        <v>203.3415449658898</v>
       </c>
       <c r="H28">
-        <v>1783.211906927637</v>
+        <v>1753.607140992412</v>
       </c>
       <c r="I28">
-        <v>-442.1452295306203</v>
+        <v>-440.0931214010434</v>
       </c>
       <c r="J28">
-        <v>729.5861151796715</v>
+        <v>770.2053233113726</v>
       </c>
       <c r="K28">
-        <v>3034.449942515138</v>
+        <v>3030.107529492775</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>53.57077372167397</v>
+        <v>52.67846580612287</v>
       </c>
       <c r="G29">
-        <v>220.5607895052166</v>
+        <v>231.4176491641558</v>
       </c>
       <c r="H29">
-        <v>1711.768137430083</v>
+        <v>1706.047882962007</v>
       </c>
       <c r="I29">
-        <v>-366.7482774505137</v>
+        <v>-394.6590738382496</v>
       </c>
       <c r="J29">
-        <v>690.5019454716901</v>
+        <v>691.5614770104926</v>
       </c>
       <c r="K29">
-        <v>2919.747594846445</v>
+        <v>2846.277781990027</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>52.03434912489758</v>
+        <v>55.70288511863443</v>
       </c>
       <c r="G30">
-        <v>253.4222659764959</v>
+        <v>238.1833790986009</v>
       </c>
       <c r="H30">
-        <v>1841.370607819866</v>
+        <v>1680.893180942769</v>
       </c>
       <c r="I30">
-        <v>-309.899710036905</v>
+        <v>-317.1977685068898</v>
       </c>
       <c r="J30">
-        <v>626.4031334596857</v>
+        <v>645.7341852435912</v>
       </c>
       <c r="K30">
-        <v>2745.788529368153</v>
+        <v>2911.302511470289</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>54.41821183519948</v>
+        <v>53.60121845400009</v>
       </c>
       <c r="G31">
-        <v>253.1986041608595</v>
+        <v>274.2568656970025</v>
       </c>
       <c r="H31">
-        <v>1821.051755465917</v>
+        <v>1713.779429584053</v>
       </c>
       <c r="I31">
-        <v>-258.7581560505863</v>
+        <v>-263.7992163305034</v>
       </c>
       <c r="J31">
-        <v>589.1634872831669</v>
+        <v>616.9433411587476</v>
       </c>
       <c r="K31">
-        <v>2604.321136597976</v>
+        <v>2588.154126066447</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>53.16807689486949</v>
+        <v>52.92573106483119</v>
       </c>
       <c r="G32">
-        <v>269.1802072361878</v>
+        <v>282.3526398386351</v>
       </c>
       <c r="H32">
-        <v>1822.59238871653</v>
+        <v>1776.328064233658</v>
       </c>
       <c r="I32">
-        <v>-215.7851681316673</v>
+        <v>-217.0919897579826</v>
       </c>
       <c r="J32">
-        <v>533.2806434541816</v>
+        <v>525.7078424972279</v>
       </c>
       <c r="K32">
-        <v>2526.919398196799</v>
+        <v>2481.445650894857</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>50.82550333088632</v>
+        <v>48.57826335349475</v>
       </c>
       <c r="G33">
-        <v>306.6205285049936</v>
+        <v>304.2796589313795</v>
       </c>
       <c r="H33">
-        <v>1768.869766858217</v>
+        <v>1763.514473165439</v>
       </c>
       <c r="I33">
-        <v>-146.8086805947999</v>
+        <v>-146.7895387648965</v>
       </c>
       <c r="J33">
-        <v>469.8585711287957</v>
+        <v>496.0607917910272</v>
       </c>
       <c r="K33">
-        <v>2413.286397147558</v>
+        <v>2473.73725904468</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>49.48194311423399</v>
+        <v>50.58682013846711</v>
       </c>
       <c r="G34">
-        <v>311.2533422825803</v>
+        <v>324.0782782404378</v>
       </c>
       <c r="H34">
-        <v>1725.390823925212</v>
+        <v>1794.277982225379</v>
       </c>
       <c r="I34">
-        <v>-79.72109185567159</v>
+        <v>-85.11752266321413</v>
       </c>
       <c r="J34">
-        <v>422.2604981869595</v>
+        <v>464.5287247561994</v>
       </c>
       <c r="K34">
-        <v>2202.311052378646</v>
+        <v>2261.487816214685</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>49.66330121897644</v>
+        <v>47.42250215659003</v>
       </c>
       <c r="G35">
-        <v>338.0231785698347</v>
+        <v>319.3661096381225</v>
       </c>
       <c r="H35">
-        <v>1732.455496879433</v>
+        <v>1738.958811679401</v>
       </c>
       <c r="I35">
-        <v>-19.64208513793225</v>
+        <v>-18.04222844790491</v>
       </c>
       <c r="J35">
-        <v>390.6416198764809</v>
+        <v>383.389275446641</v>
       </c>
       <c r="K35">
-        <v>2100.595771735774</v>
+        <v>2105.226318721984</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>49.42221312622737</v>
+        <v>45.53425061695395</v>
       </c>
       <c r="G36">
-        <v>340.9830962199083</v>
+        <v>359.6966467236572</v>
       </c>
       <c r="H36">
-        <v>1762.692665150713</v>
+        <v>1914.769935693302</v>
       </c>
       <c r="I36">
-        <v>49.66971743111536</v>
+        <v>47.44108798802742</v>
       </c>
       <c r="J36">
-        <v>360.6327790147647</v>
+        <v>342.7731522115414</v>
       </c>
       <c r="K36">
-        <v>1821.740816549456</v>
+        <v>1740.352105193779</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>47.4637684478304</v>
+        <v>48.62841865213164</v>
       </c>
       <c r="G37">
-        <v>376.7634277264702</v>
+        <v>351.4238412944629</v>
       </c>
       <c r="H37">
-        <v>1910.011400668373</v>
+        <v>1931.743012797205</v>
       </c>
       <c r="I37">
-        <v>113.2253686275881</v>
+        <v>111.8177385161051</v>
       </c>
       <c r="J37">
-        <v>298.6396713492309</v>
+        <v>295.6404837866328</v>
       </c>
       <c r="K37">
-        <v>1617.316216872033</v>
+        <v>1651.842624092305</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>46.75078214849164</v>
+        <v>47.23751522712215</v>
       </c>
       <c r="G38">
-        <v>361.2177032955972</v>
+        <v>360.1484471496676</v>
       </c>
       <c r="H38">
-        <v>1890.783575001706</v>
+        <v>1887.551912394086</v>
       </c>
       <c r="I38">
-        <v>184.2726501382999</v>
+        <v>182.454113883731</v>
       </c>
       <c r="J38">
-        <v>253.5549824581977</v>
+        <v>254.5040193185333</v>
       </c>
       <c r="K38">
-        <v>1341.64458779498</v>
+        <v>1443.439225593838</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>44.70263093493969</v>
+        <v>46.25032258895705</v>
       </c>
       <c r="G39">
-        <v>403.4251591085183</v>
+        <v>410.5404418761464</v>
       </c>
       <c r="H39">
-        <v>1913.503527644343</v>
+        <v>1921.237095319233</v>
       </c>
       <c r="I39">
-        <v>266.3020914126512</v>
+        <v>243.6820708279473</v>
       </c>
       <c r="J39">
-        <v>192.9684013474269</v>
+        <v>203.635962503485</v>
       </c>
       <c r="K39">
-        <v>1179.593894965001</v>
+        <v>1164.964297302467</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>42.17451614877746</v>
+        <v>44.04918385234622</v>
       </c>
       <c r="G40">
-        <v>394.2394194817487</v>
+        <v>393.4773008833681</v>
       </c>
       <c r="H40">
-        <v>1784.445891188926</v>
+        <v>1833.124276309772</v>
       </c>
       <c r="I40">
-        <v>336.138443539095</v>
+        <v>337.7270360152342</v>
       </c>
       <c r="J40">
-        <v>145.0236769111322</v>
+        <v>156.7009771346807</v>
       </c>
       <c r="K40">
-        <v>926.7338828711937</v>
+        <v>867.534014966279</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>43.06668220231234</v>
+        <v>43.36816998290609</v>
       </c>
       <c r="G41">
-        <v>422.9173091692238</v>
+        <v>427.9683649086734</v>
       </c>
       <c r="H41">
-        <v>1814.29020078448</v>
+        <v>1860.907667689172</v>
       </c>
       <c r="I41">
-        <v>421.8739647247331</v>
+        <v>416.2709563395359</v>
       </c>
       <c r="J41">
-        <v>102.5441277688862</v>
+        <v>104.6566088015661</v>
       </c>
       <c r="K41">
-        <v>629.1421143491218</v>
+        <v>651.041161568773</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>40.7642735227495</v>
+        <v>44.56677573115006</v>
       </c>
       <c r="G42">
-        <v>456.4237868828686</v>
+        <v>439.2716964283919</v>
       </c>
       <c r="H42">
-        <v>1920.23343139648</v>
+        <v>1830.658968569824</v>
       </c>
       <c r="I42">
-        <v>469.3698108131115</v>
+        <v>499.1527997868436</v>
       </c>
       <c r="J42">
-        <v>52.32677950465698</v>
+        <v>56.61671034889793</v>
       </c>
       <c r="K42">
-        <v>320.3190065984422</v>
+        <v>347.6309708861284</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>41.46354792782271</v>
+        <v>42.95622639631613</v>
       </c>
       <c r="G43">
-        <v>444.4790892300311</v>
+        <v>484.419406887301</v>
       </c>
       <c r="H43">
-        <v>1980.120264192433</v>
+        <v>1837.723586879423</v>
       </c>
       <c r="I43">
-        <v>579.5136804102368</v>
+        <v>583.0124917661877</v>
       </c>
       <c r="J43">
-        <v>5.487282089446618</v>
+        <v>5.535094466427067</v>
       </c>
       <c r="K43">
-        <v>32.67792542499571</v>
+        <v>34.70674618290072</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>40.17731860755553</v>
+        <v>42.68329806514009</v>
       </c>
       <c r="G44">
-        <v>473.6010699719537</v>
+        <v>464.2722440108611</v>
       </c>
       <c r="H44">
-        <v>1919.931356564307</v>
+        <v>1842.192730718201</v>
       </c>
       <c r="I44">
-        <v>660.8905618359397</v>
+        <v>650.6631963561563</v>
       </c>
       <c r="J44">
-        <v>-42.68012393104759</v>
+        <v>-45.21018792823253</v>
       </c>
       <c r="K44">
-        <v>-286.774187894982</v>
+        <v>-284.3741744567001</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>41.53611106244463</v>
+        <v>39.20457812002181</v>
       </c>
       <c r="G45">
-        <v>513.6970201681081</v>
+        <v>505.0775147680463</v>
       </c>
       <c r="H45">
-        <v>1827.002064502146</v>
+        <v>1952.685466336412</v>
       </c>
       <c r="I45">
-        <v>690.7034415820663</v>
+        <v>751.4885546283798</v>
       </c>
       <c r="J45">
-        <v>-92.45079814831647</v>
+        <v>-96.43866524569211</v>
       </c>
       <c r="K45">
-        <v>-593.8612636531183</v>
+        <v>-616.9235736666461</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>40.5619504710637</v>
+        <v>41.60765277239847</v>
       </c>
       <c r="G46">
-        <v>491.355067462057</v>
+        <v>515.7370472045613</v>
       </c>
       <c r="H46">
-        <v>1982.217246007107</v>
+        <v>1918.630437931274</v>
       </c>
       <c r="I46">
-        <v>784.1990338584177</v>
+        <v>764.6017766401781</v>
       </c>
       <c r="J46">
-        <v>-140.9259683963728</v>
+        <v>-135.3108956550253</v>
       </c>
       <c r="K46">
-        <v>-921.2016058694305</v>
+        <v>-981.3575828038005</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>38.96115505078032</v>
+        <v>41.10889389372409</v>
       </c>
       <c r="G47">
-        <v>513.1399785928495</v>
+        <v>509.3327006937691</v>
       </c>
       <c r="H47">
-        <v>1993.575281489818</v>
+        <v>1945.794018702402</v>
       </c>
       <c r="I47">
-        <v>930.4679282265206</v>
+        <v>851.8230300568057</v>
       </c>
       <c r="J47">
-        <v>-182.5617944872474</v>
+        <v>-197.336118260414</v>
       </c>
       <c r="K47">
-        <v>-1345.981955170255</v>
+        <v>-1279.370538482904</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>41.06178926459691</v>
+        <v>38.20870731023961</v>
       </c>
       <c r="G48">
-        <v>526.0133775803848</v>
+        <v>536.2790382044901</v>
       </c>
       <c r="H48">
-        <v>2034.742238091989</v>
+        <v>2028.209479432498</v>
       </c>
       <c r="I48">
-        <v>940.308878007704</v>
+        <v>944.3904781121417</v>
       </c>
       <c r="J48">
-        <v>-233.2187270517243</v>
+        <v>-239.2254310834389</v>
       </c>
       <c r="K48">
-        <v>-1786.390050885087</v>
+        <v>-1630.602386047028</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>40.40056313210152</v>
+        <v>40.30131143691958</v>
       </c>
       <c r="G49">
-        <v>563.9607451266437</v>
+        <v>545.7385762178087</v>
       </c>
       <c r="H49">
-        <v>1911.643343131064</v>
+        <v>1963.511290050857</v>
       </c>
       <c r="I49">
-        <v>1073.633221907428</v>
+        <v>1095.594090686654</v>
       </c>
       <c r="J49">
-        <v>-272.4939931496984</v>
+        <v>-289.9070419407977</v>
       </c>
       <c r="K49">
-        <v>-2061.274462673715</v>
+        <v>-2037.333240077472</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>39.05148250158199</v>
+        <v>36.88265934248269</v>
       </c>
       <c r="G50">
-        <v>603.0300107820616</v>
+        <v>566.3760885373184</v>
       </c>
       <c r="H50">
-        <v>1871.260991622365</v>
+        <v>2007.684810952241</v>
       </c>
       <c r="I50">
-        <v>1144.665221121764</v>
+        <v>1121.783981862628</v>
       </c>
       <c r="J50">
-        <v>-339.406659835027</v>
+        <v>-345.1321310196938</v>
       </c>
       <c r="K50">
-        <v>-2529.163864918552</v>
+        <v>-2426.561284120424</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>36.6080433757417</v>
+        <v>39.42494461889491</v>
       </c>
       <c r="G51">
-        <v>609.8052268227716</v>
+        <v>595.2177476284974</v>
       </c>
       <c r="H51">
-        <v>1898.460138004868</v>
+        <v>1876.152914279982</v>
       </c>
       <c r="I51">
-        <v>1271.400125334171</v>
+        <v>1284.52429934984</v>
       </c>
       <c r="J51">
-        <v>-398.3054378941278</v>
+        <v>-382.282528855607</v>
       </c>
       <c r="K51">
-        <v>-2837.559710721655</v>
+        <v>-3014.394800651521</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>38.45336335352805</v>
+        <v>36.23976539266069</v>
       </c>
       <c r="G52">
-        <v>629.9996908270828</v>
+        <v>634.7298272866474</v>
       </c>
       <c r="H52">
-        <v>1879.096505907141</v>
+        <v>1968.544448512003</v>
       </c>
       <c r="I52">
-        <v>1385.020944658378</v>
+        <v>1390.32599543122</v>
       </c>
       <c r="J52">
-        <v>-439.6378565796197</v>
+        <v>-429.3612609653264</v>
       </c>
       <c r="K52">
-        <v>-3405.394133472984</v>
+        <v>-3478.286637071531</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>36.14264487650947</v>
+        <v>37.00039587703807</v>
       </c>
       <c r="G53">
-        <v>619.3961877197629</v>
+        <v>627.6662831758388</v>
       </c>
       <c r="H53">
-        <v>1891.651450359686</v>
+        <v>2029.759651370727</v>
       </c>
       <c r="I53">
-        <v>1449.765903973583</v>
+        <v>1397.982080363634</v>
       </c>
       <c r="J53">
-        <v>-465.6839964270191</v>
+        <v>-495.1489073697605</v>
       </c>
       <c r="K53">
-        <v>-3875.726800586023</v>
+        <v>-3792.285577319941</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>35.75114752917619</v>
+        <v>37.30435869456861</v>
       </c>
       <c r="G54">
-        <v>637.7641914191189</v>
+        <v>628.4323975611549</v>
       </c>
       <c r="H54">
-        <v>2024.125472238368</v>
+        <v>1992.619643811574</v>
       </c>
       <c r="I54">
-        <v>1582.531456557118</v>
+        <v>1528.453163033807</v>
       </c>
       <c r="J54">
-        <v>-519.4909086570721</v>
+        <v>-551.6816401773102</v>
       </c>
       <c r="K54">
-        <v>-4445.716699318809</v>
+        <v>-4210.765765584507</v>
       </c>
     </row>
   </sheetData>
